--- a/Test_Slen/PythonSelFramework/TestData/data.xlsx
+++ b/Test_Slen/PythonSelFramework/TestData/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>silicon@litepoint.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +401,7 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +414,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -419,8 +431,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -432,6 +447,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
